--- a/biology/Botanique/Jardin_Hector-Malot/Jardin_Hector-Malot.xlsx
+++ b/biology/Botanique/Jardin_Hector-Malot/Jardin_Hector-Malot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le jardin Hector-Malot est un espace vert municipal du 12e arrondissement de Paris, situé au 17, rue Hector-Malot. 
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin fait partie du grand ensemble d'espaces verts reliés par la coulée verte René-Dumont avec le jardin de Reuilly, le jardin de la Gare-de-Reuilly et le square Charles-Péguy.
 Le jardin est accessible par les lignes de métro 1 et 14 à la station de métro Gare de Lyon, par les lignes de RER A et D à Paris-Gare-de-Lyon.
@@ -544,7 +558,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin est ouvert en 1995 dans la rue homonyme et doit, comme elle, son nom à l'écrivain Hector Malot (1830-1907), qui vécut dans l'arrondissement. D'une surface de 2 400 m2 répartis en deux terrasses descendant vers l'avenue Daumesnil, il est réalisé sur les plans du cabinet paysagiste Andreas Christo-Foroux avec Paribiotop.
 </t>
